--- a/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E8" s="3">
         <v>89400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>84500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>62000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>57800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>22500</v>
+        <v>24200</v>
       </c>
       <c r="E9" s="3">
         <v>22500</v>
       </c>
       <c r="F9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G9" s="3">
         <v>21600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E10" s="3">
         <v>66900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>62000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>54200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>49100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>45000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +881,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E12" s="3">
         <v>16500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>12200</v>
       </c>
       <c r="I12" s="3">
         <v>12200</v>
       </c>
       <c r="J12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K12" s="3">
         <v>11700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E17" s="3">
         <v>121900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>125700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>112900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>112300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>76900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>66100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-41200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-45900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-50300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1178,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-40700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-47100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-4400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1308,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-44700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-50600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1100</v>
       </c>
       <c r="G24" s="3">
         <v>1100</v>
       </c>
       <c r="H24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-51200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-51200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1704,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-51200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-51200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,32 +1967,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>309900</v>
+      </c>
+      <c r="E41" s="3">
         <v>310800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>356000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>332700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>326900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>374200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>87000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,32 +2053,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E43" s="3">
         <v>97800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>92000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>93000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>60900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2097,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,32 +2141,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E45" s="3">
         <v>34300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>36800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,32 +2185,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>462900</v>
+      </c>
+      <c r="E46" s="3">
         <v>442900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>475000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>454700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>448700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>458600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>164000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2229,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,32 +2273,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E48" s="3">
         <v>84100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>82400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>81900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>42800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>38800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,17 +2317,20 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E49" s="3">
         <v>39100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2235,8 +2346,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,32 +2449,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E52" s="3">
         <v>52000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>45000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,32 +2537,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>649800</v>
+      </c>
+      <c r="E54" s="3">
         <v>618100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>602500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>576000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>528800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>532800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>234200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,32 +2619,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E57" s="3">
         <v>16800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,29 +2661,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5200</v>
       </c>
       <c r="F58" s="3">
         <v>5200</v>
       </c>
       <c r="G58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,32 +2705,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>284300</v>
+      </c>
+      <c r="E59" s="3">
         <v>254500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>232200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>212000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>191400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>150200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>145600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,32 +2749,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>307700</v>
+      </c>
+      <c r="E60" s="3">
         <v>277200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>253800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>233800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>208400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>168700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>153000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,23 +2793,26 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E61" s="3">
         <v>7000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2694,32 +2837,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E62" s="3">
         <v>39500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>37500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,32 +3013,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>358100</v>
+      </c>
+      <c r="E66" s="3">
         <v>323700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>298400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>278100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>221300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>180900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>161900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,32 +3251,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-492500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-455800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-421100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-380400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-343200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-297400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-259400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,32 +3427,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E76" s="3">
         <v>294400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>304000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>297900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>307500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>351900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-51200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,38 +3628,39 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,38 +3890,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3717,8 +3934,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,38 +3954,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,38 +4084,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,38 +4322,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>305300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>61900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4120,38 +4366,41 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4161,38 +4410,41 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-47300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>287200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>62700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,6 +4452,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E8" s="3">
         <v>98200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>89400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>84500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>69300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>62000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>57800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>36700</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E9" s="3">
         <v>24200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>22500</v>
       </c>
       <c r="F9" s="3">
         <v>22500</v>
       </c>
       <c r="G9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H9" s="3">
         <v>21600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E10" s="3">
         <v>74000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>54200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>49100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E12" s="3">
         <v>20400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>12200</v>
       </c>
       <c r="J12" s="3">
         <v>12200</v>
       </c>
       <c r="K12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="L12" s="3">
         <v>11700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E17" s="3">
         <v>135800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>125700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>112900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>115200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>112300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>66100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>54400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>49400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-45900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-50300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-34600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-31700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-40700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-47100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-4400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-39300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-44700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-50600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1100</v>
       </c>
       <c r="H24" s="3">
         <v>1100</v>
       </c>
       <c r="I24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-45800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-51200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-51200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-51200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-51200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>303100</v>
+      </c>
+      <c r="E41" s="3">
         <v>309900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>310800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>356000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>332700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>326900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>374200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>87000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,35 +2145,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E43" s="3">
         <v>109400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>97800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>92000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>93000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>55400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,35 +2239,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E45" s="3">
         <v>43600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>438800</v>
+      </c>
+      <c r="E46" s="3">
         <v>462900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>442900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>475000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>454700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>448700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>458600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>164000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,35 +2380,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E48" s="3">
         <v>86500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>84100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>82400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>81900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>42800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>38800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2329,11 +2439,11 @@
         <v>32400</v>
       </c>
       <c r="E49" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F49" s="3">
         <v>39100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2349,8 +2459,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,35 +2568,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E52" s="3">
         <v>68000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>52000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>45000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>627200</v>
+      </c>
+      <c r="E54" s="3">
         <v>649800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>618100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>602500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>576000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>528800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>532800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>234200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,35 +2749,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E57" s="3">
         <v>16400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2673,23 +2806,23 @@
         <v>7000</v>
       </c>
       <c r="E58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F58" s="3">
         <v>6000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5200</v>
       </c>
       <c r="G58" s="3">
         <v>5200</v>
       </c>
       <c r="H58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,35 +2841,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>267300</v>
+      </c>
+      <c r="E59" s="3">
         <v>284300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>254500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>232200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>212000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>191400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>150200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>145600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>293800</v>
+      </c>
+      <c r="E60" s="3">
         <v>307700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>277200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>253800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>233800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>208400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>168700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>153000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,26 +2935,29 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2840,35 +2982,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E62" s="3">
         <v>43200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>39500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>346600</v>
+      </c>
+      <c r="E66" s="3">
         <v>358100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>323700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>298400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>278100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>221300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>161900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-532600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-492500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-455800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-421100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-380400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-343200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-297400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-259400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3298,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>280600</v>
+      </c>
+      <c r="E76" s="3">
         <v>291700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>294400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>304000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>297900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>307500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>351900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-51200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,41 +3826,42 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,41 +4106,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,41 +4174,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,41 +4313,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4131,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,41 +4567,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>10800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>305300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>61900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,41 +4614,44 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4413,41 +4661,44 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-45100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-47300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>287200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>62700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4455,6 +4706,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>106500</v>
+      </c>
+      <c r="E8" s="3">
         <v>103800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>89400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>84500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>75800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>69300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>62000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>57800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36700</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E9" s="3">
         <v>24700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>22500</v>
       </c>
       <c r="G9" s="3">
         <v>22500</v>
       </c>
       <c r="H9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="I9" s="3">
         <v>21600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E10" s="3">
         <v>79100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>74000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>54200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>49100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E12" s="3">
         <v>23800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>12200</v>
       </c>
       <c r="K12" s="3">
         <v>12200</v>
       </c>
       <c r="L12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E17" s="3">
         <v>142600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>135800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>125700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>112900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>115200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>112300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>66100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>54400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>49400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-38800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-45900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-50300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-31700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-40700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-47100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-4400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-39300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-44700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-50600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1100</v>
       </c>
       <c r="I24" s="3">
         <v>1100</v>
       </c>
       <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-39600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-45800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-51200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-51200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-39600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-45800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-51200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-39600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-45800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-51200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2140,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>304900</v>
+      </c>
+      <c r="E41" s="3">
         <v>303100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>309900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>310800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>356000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>332700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>326900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>374200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>87000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,38 +2238,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E43" s="3">
         <v>93400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>97800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>92000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>93000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>55400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,38 +2338,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E45" s="3">
         <v>42300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2388,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>440300</v>
+      </c>
+      <c r="E46" s="3">
         <v>438800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>462900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>442900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>475000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>454700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>448700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>458600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>164000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,38 +2488,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E48" s="3">
         <v>85500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>86500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>84100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>82400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>81900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>42800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,11 +2553,11 @@
         <v>32400</v>
       </c>
       <c r="F49" s="3">
+        <v>32400</v>
+      </c>
+      <c r="G49" s="3">
         <v>39100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2462,8 +2573,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2688,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E52" s="3">
         <v>70600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>52000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>45000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2788,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>640900</v>
+      </c>
+      <c r="E54" s="3">
         <v>627200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>649800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>618100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>602500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>576000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>528800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>532800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>234200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +2880,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E57" s="3">
         <v>19500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,35 +2928,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7000</v>
+        <v>8400</v>
       </c>
       <c r="E58" s="3">
         <v>7000</v>
       </c>
       <c r="F58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G58" s="3">
         <v>6000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5200</v>
       </c>
       <c r="H58" s="3">
         <v>5200</v>
       </c>
       <c r="I58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,38 +2978,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>280500</v>
+      </c>
+      <c r="E59" s="3">
         <v>267300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>284300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>254500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>232200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>212000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>191400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>150200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>145600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,38 +3028,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>302500</v>
+      </c>
+      <c r="E60" s="3">
         <v>293800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>307700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>277200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>253800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>233800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>208400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>168700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>153000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,29 +3078,32 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E61" s="3">
         <v>6000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2985,38 +3128,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E62" s="3">
         <v>46800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>43200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>39500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3328,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>358700</v>
+      </c>
+      <c r="E66" s="3">
         <v>346600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>358100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>323700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>298400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>278100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>221300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>180900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>161900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3598,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-568100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-532600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-492500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-455800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-421100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-380400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-343200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-297400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-259400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3798,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>282100</v>
+      </c>
+      <c r="E76" s="3">
         <v>280600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>291700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>294400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>304000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>297900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>307500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>351900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-39600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-45800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-51200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,44 +4025,45 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,44 +4323,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,44 +4395,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,44 +4543,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,44 +4813,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>305300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>61900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4617,44 +4863,47 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,44 +4913,47 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-47300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>287200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>62700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,258 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>114900</v>
+      </c>
+      <c r="F8" s="3">
         <v>106500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>103800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>98200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>89400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>84500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>75800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>69300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>62000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>57800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>51600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>46300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>44200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>41100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>36700</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F9" s="3">
         <v>25400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>24700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>24200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>22500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>22500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>21600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>20200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>17000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>16000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>14000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>13400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>10700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>85500</v>
+      </c>
+      <c r="F10" s="3">
         <v>81100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>79100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>74000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>66900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>62000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>54200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>49100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>45000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>41800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>37600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>33700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>29000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>27700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>26000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +935,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E12" s="3">
         <v>24600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="G12" s="3">
         <v>23800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>20400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>16500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>16400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>15100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>13500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>12200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>11700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>8800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6400</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1043,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1099,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1155,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1178,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>150700</v>
+      </c>
+      <c r="F17" s="3">
         <v>144200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>142600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>135800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>121900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>125700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>112900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>115200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>112300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>77800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>76900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>66100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>54400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>49400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>44300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-37700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-38800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-37600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-32500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-41200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-37100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-45900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-50300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-20000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-25300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-19800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-7600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1312,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-27700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-32500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-29600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-28500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-34600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-31700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-40700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-47100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-17100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-23200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-17300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1476,126 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-33900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-38600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-35600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-33700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-39300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-36100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-44700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-50600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-20100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-25600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-19500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-8000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1100</v>
       </c>
       <c r="G24" s="3">
         <v>1000</v>
       </c>
       <c r="H24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>900</v>
       </c>
       <c r="M24" s="3">
         <v>600</v>
       </c>
       <c r="N24" s="3">
+        <v>900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>600</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1644,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-35500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-39600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-36700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-34700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-40600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-37200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-45800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-51200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-26200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-19800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-8200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-35500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-39600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-36700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-34700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-40600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-37200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-45800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-51200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-21000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-26200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-19800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1812,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1868,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1924,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1980,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-35500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-39600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-36700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-34700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-40600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-37200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-45800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-51200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-21000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-26200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-19800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-8200</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2148,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-35500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-39600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-36700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-34700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-40600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-37200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-45800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-51200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-21000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-26200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-19800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-8200</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2291,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2313,46 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>296800</v>
+      </c>
+      <c r="F41" s="3">
         <v>304900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>303100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>309900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>310800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>356000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>332700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>326900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>374200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>87000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2365,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,44 +2421,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>147300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>128200</v>
+      </c>
+      <c r="F43" s="3">
         <v>88700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>93400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>109400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>97800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>82300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>92000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>93000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>60900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>55400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,8 +2477,14 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,44 +2533,50 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>50800</v>
+      </c>
+      <c r="F45" s="3">
         <v>46800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>42300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>43600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>34300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>36800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>30000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>28800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>23500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>21700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,44 +2589,50 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>475800</v>
+      </c>
+      <c r="F46" s="3">
         <v>440300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>438800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>462900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>442900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>475000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>454700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>448700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>458600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>164000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2645,14 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,44 +2701,50 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>88000</v>
+      </c>
+      <c r="F48" s="3">
         <v>86800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>85500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>86500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>84100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>82400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>81900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>43300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>42800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>38800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,29 +2757,35 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>38600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>38900</v>
+      </c>
+      <c r="H49" s="3">
         <v>32400</v>
       </c>
-      <c r="E49" s="3">
-        <v>32400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>32400</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>39100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,11 +2798,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2591,8 +2813,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2869,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,44 +2925,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81400</v>
+        <v>86600</v>
       </c>
       <c r="E52" s="3">
-        <v>70600</v>
+        <v>76100</v>
       </c>
       <c r="F52" s="3">
+        <v>75200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>64100</v>
+      </c>
+      <c r="H52" s="3">
         <v>68000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>52000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>45000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>39400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>36800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>31300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>31400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2981,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +3037,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>739100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>678100</v>
+      </c>
+      <c r="F54" s="3">
         <v>640900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>627200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>649800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>618100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>602500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>576000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>528800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>532800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>234200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +3093,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3119,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3141,46 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F57" s="3">
         <v>13600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>19500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>16400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>16800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>16300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>16600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>12400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,41 +3193,47 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F58" s="3">
         <v>8400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,44 +3249,50 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>377900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>318700</v>
+      </c>
+      <c r="F59" s="3">
         <v>280500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>267300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>284300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>254500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>232200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>212000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>191400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>150200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>145600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3305,50 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>405200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>343200</v>
+      </c>
+      <c r="F60" s="3">
         <v>302500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>293800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>307700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>277200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>253800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>233800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>208400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>168700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>153000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,35 +3361,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F61" s="3">
         <v>7200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3131,44 +3417,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F62" s="3">
         <v>49100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>46800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>43200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>39500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>37500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>35700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3473,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3529,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3585,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3641,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>461100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>401000</v>
+      </c>
+      <c r="F66" s="3">
         <v>358700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>346600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>358100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>323700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>298400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>278100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>221300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>180900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>161900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3697,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3723,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3775,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3831,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3887,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3943,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-647000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-604900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-568100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-532600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-492500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-455800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-421100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-380400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-343200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-297400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-259400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3999,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4055,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4111,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +4167,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>277100</v>
+      </c>
+      <c r="F76" s="3">
         <v>282100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>280600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>291700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>294400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>304000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>297900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>307500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>351900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>72300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4223,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4279,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-35500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-39600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-36700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-34700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-40600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-37200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-45800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-51200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-21000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-26200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-19800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-8200</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4422,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>6100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4530,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4586,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4642,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4698,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4754,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-16000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-15900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-6900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-8800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4836,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-700</v>
       </c>
       <c r="I91" s="3">
         <v>-900</v>
       </c>
       <c r="J91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-5800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4944,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,28 +5000,34 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-8800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-33000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-3100</v>
       </c>
       <c r="J94" s="3">
         <v>-3600</v>
@@ -4576,28 +5036,34 @@
         <v>-3100</v>
       </c>
       <c r="L94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-8400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5082,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5134,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5190,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5246,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5302,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>12400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>10800</v>
       </c>
       <c r="G100" s="3">
         <v>2100</v>
       </c>
       <c r="H100" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J100" s="3">
         <v>22400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>11200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-28300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>305300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>61900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-45100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>23300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-47300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>287200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-14600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-15500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>62700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>129800</v>
+      </c>
+      <c r="E8" s="3">
         <v>122500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>114900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>106500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>89400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>84500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>69300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>57800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>51600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>36700</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>29400</v>
+        <v>32800</v>
       </c>
       <c r="E9" s="3">
         <v>29400</v>
       </c>
       <c r="F9" s="3">
+        <v>29400</v>
+      </c>
+      <c r="G9" s="3">
         <v>25400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>22500</v>
       </c>
       <c r="J9" s="3">
         <v>22500</v>
       </c>
       <c r="K9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="L9" s="3">
         <v>21600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E10" s="3">
         <v>93100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>85500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>81100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>79100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>74000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E12" s="3">
         <v>27500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>24600</v>
       </c>
       <c r="F12" s="3">
         <v>24600</v>
       </c>
       <c r="G12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H12" s="3">
         <v>23800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13500</v>
-      </c>
-      <c r="M12" s="3">
-        <v>12200</v>
       </c>
       <c r="N12" s="3">
         <v>12200</v>
       </c>
       <c r="O12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="P12" s="3">
         <v>11700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E17" s="3">
         <v>164000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>150700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>144200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>142600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>135800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>125700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>112900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>112300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>76900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>66100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>54400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>49400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>44300</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-41500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-35800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-38800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-32500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-45900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-50300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-25300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-34200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-32500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-34600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-31700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-40700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-47100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-4400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-38600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-35600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-39300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-44700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-50600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1100</v>
       </c>
       <c r="L24" s="3">
         <v>1100</v>
       </c>
       <c r="M24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-39600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-45800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-51200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-39600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-40600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-51200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-39600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-40600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-51200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-39600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-40600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-51200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,47 +2400,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>327500</v>
+      </c>
+      <c r="E41" s="3">
         <v>321000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>296800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>304900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>303100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>309900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>310800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>356000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>332700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>326900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>374200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>87000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,47 +2516,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E43" s="3">
         <v>147300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>128200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>88700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>93400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>109400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>97800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>82300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>92000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>93000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2483,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2539,47 +2634,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E45" s="3">
         <v>60700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>36800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2595,47 +2693,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>496200</v>
+      </c>
+      <c r="E46" s="3">
         <v>529000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>475800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>440300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>438800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>462900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>442900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>475000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>454700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>448700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>458600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>164000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,47 +2811,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E48" s="3">
         <v>85600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>88000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>86800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>85500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>86500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>84100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>82400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>81900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>38800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,32 +2870,35 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E49" s="3">
         <v>37900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2804,8 +2914,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,47 +3047,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E52" s="3">
         <v>86600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>76100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>64100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>52000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>45000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,47 +3165,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>714500</v>
+      </c>
+      <c r="E54" s="3">
         <v>739100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>678100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>640900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>627200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>649800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>618100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>602500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>576000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>528800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>532800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>234200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,47 +3272,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3199,44 +3329,47 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E58" s="3">
         <v>8000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>7000</v>
       </c>
       <c r="H58" s="3">
         <v>7000</v>
       </c>
       <c r="I58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J58" s="3">
         <v>6000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5200</v>
       </c>
       <c r="K58" s="3">
         <v>5200</v>
       </c>
       <c r="L58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3255,47 +3388,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>368100</v>
+      </c>
+      <c r="E59" s="3">
         <v>377900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>318700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>280500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>267300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>284300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>254500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>232200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>212000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>150200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>145600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3311,47 +3447,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>393700</v>
+      </c>
+      <c r="E60" s="3">
         <v>405200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>343200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>302500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>293800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>307700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>277200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>253800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>233800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>208400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>168700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>153000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3367,38 +3506,41 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E61" s="3">
         <v>5800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3423,47 +3565,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E62" s="3">
         <v>50200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>43200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>39500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3479,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,47 +3801,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>451800</v>
+      </c>
+      <c r="E66" s="3">
         <v>461100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>401000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>358700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>346600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>358100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>323700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>298400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>278100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>221300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3703,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,47 +4119,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-698500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-647000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-604900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-568100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-532600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-492500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-455800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-421100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-380400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-343200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-297400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-259400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4005,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,47 +4355,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>262700</v>
+      </c>
+      <c r="E76" s="3">
         <v>278000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>277100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>282100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>280600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>291700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>294400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>304000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>297900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>307500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>351900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4229,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-39600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-40600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-51200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,53 +4621,54 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,53 +4973,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E89" s="3">
         <v>10300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4816,8 +5032,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,53 +5057,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4894,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,53 +5232,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5062,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,53 +5550,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>11900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>305300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>61900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5364,53 +5609,56 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5420,53 +5668,56 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>22000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-45100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-47300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>287200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>62700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5474,6 +5725,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>144300</v>
+      </c>
+      <c r="E8" s="3">
         <v>129800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>114900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>106500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>89400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>84500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>75800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>62000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>57800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>51600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>46300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>36700</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E9" s="3">
         <v>32800</v>
-      </c>
-      <c r="E9" s="3">
-        <v>29400</v>
       </c>
       <c r="F9" s="3">
         <v>29400</v>
       </c>
       <c r="G9" s="3">
+        <v>29400</v>
+      </c>
+      <c r="H9" s="3">
         <v>25400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>22500</v>
       </c>
       <c r="K9" s="3">
         <v>22500</v>
       </c>
       <c r="L9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="M9" s="3">
         <v>21600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10700</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E10" s="3">
         <v>97000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>93100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>85500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>81100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>79100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>41800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>29000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E12" s="3">
         <v>33200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>24600</v>
       </c>
       <c r="G12" s="3">
         <v>24600</v>
       </c>
       <c r="H12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I12" s="3">
         <v>23800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>12200</v>
       </c>
       <c r="O12" s="3">
         <v>12200</v>
       </c>
       <c r="P12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>11700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6400</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E17" s="3">
         <v>179400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>164000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>150700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>144200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>142600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>135800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>121900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>125700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>112900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>76900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>66100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>54400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>49400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>44300</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-49600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-41500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-35800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-38800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-32500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-45900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-50300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-43300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-32500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-28500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-34600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-31700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-40700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-47100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-17300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-4400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-50200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-41100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-38600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-35600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-39300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-44700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-50600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1100</v>
       </c>
       <c r="M24" s="3">
         <v>1100</v>
       </c>
       <c r="N24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-42000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-39600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-45800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-51200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-42000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-39600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-40600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-51200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8200</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-51500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-42000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-39600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-40600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-45800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-51200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8200</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-51500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-42000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-39600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-40600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-51200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8200</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,50 +2487,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>312900</v>
+      </c>
+      <c r="E41" s="3">
         <v>327500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>321000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>296800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>304900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>303100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>309900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>310800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>356000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>332700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>326900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>374200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>87000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,50 +2609,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E43" s="3">
         <v>104800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>147300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>128200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>88700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>93400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>97800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>82300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>92000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>93000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,50 +2733,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E45" s="3">
         <v>63800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>60700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,50 +2795,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500600</v>
+      </c>
+      <c r="E46" s="3">
         <v>496200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>529000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>475800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>440300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>438800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>462900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>442900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>475000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>454700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>448700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>458600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,50 +2919,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E48" s="3">
         <v>92600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>85600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>88000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>86800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>85500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>86500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>84100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>81900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>38800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,35 +2981,38 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E49" s="3">
         <v>37600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2917,8 +3028,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,50 +3167,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E52" s="3">
         <v>88200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>86600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>76100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>64100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>68000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>52000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>45000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>36800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,50 +3291,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>729500</v>
+      </c>
+      <c r="E54" s="3">
         <v>714500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>739100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>678100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>640900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>627200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>649800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>618100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>602500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>576000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>528800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>532800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>234200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,50 +3403,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E57" s="3">
         <v>18000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,47 +3463,50 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E58" s="3">
         <v>7700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>7000</v>
       </c>
       <c r="I58" s="3">
         <v>7000</v>
       </c>
       <c r="J58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="3">
         <v>6000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5200</v>
       </c>
       <c r="L58" s="3">
         <v>5200</v>
       </c>
       <c r="M58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3391,50 +3525,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>380700</v>
+      </c>
+      <c r="E59" s="3">
         <v>368100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>377900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>318700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>280500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>267300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>284300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>254500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>232200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>212000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>191400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>150200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>145600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,50 +3587,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>412800</v>
+      </c>
+      <c r="E60" s="3">
         <v>393700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>405200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>343200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>302500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>293800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>307700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>277200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>253800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>233800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>208400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>168700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>153000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,41 +3649,44 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E61" s="3">
         <v>6300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3568,50 +3711,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E62" s="3">
         <v>51700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>43200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>39500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,50 +3959,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>467700</v>
+      </c>
+      <c r="E66" s="3">
         <v>451800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>461100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>401000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>358700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>346600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>358100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>323700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>298400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>278100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>221300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>180900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>161900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,50 +4293,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-749600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-698500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-647000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-604900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-568100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-532600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-492500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-455800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-421100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-380400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-343200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-297400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-259400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,50 +4541,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>261900</v>
+      </c>
+      <c r="E76" s="3">
         <v>262700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>278000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>277100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>282100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>280600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>291700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>294400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>304000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>297900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>307500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>351900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-51500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-42000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-39600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-40600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-45800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-51200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8200</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,56 +4820,57 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,56 +5190,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E89" s="3">
         <v>13800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,56 +5278,57 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,56 +5462,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-33000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,56 +5796,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>305300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>61900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5612,56 +5858,59 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5671,56 +5920,59 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E102" s="3">
         <v>6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-45100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-47300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>287200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>62700</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E8" s="3">
         <v>144300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>129800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>114900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>106500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>103800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>84500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>62000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>57800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>51600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>46300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>41100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>36700</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E9" s="3">
         <v>36200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>29400</v>
       </c>
       <c r="G9" s="3">
         <v>29400</v>
       </c>
       <c r="H9" s="3">
+        <v>29400</v>
+      </c>
+      <c r="I9" s="3">
         <v>25400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>22500</v>
       </c>
       <c r="L9" s="3">
         <v>22500</v>
       </c>
       <c r="M9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="N9" s="3">
         <v>21600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10700</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E10" s="3">
         <v>108100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>97000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>93100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>85500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>81100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>79100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>74000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>49100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>45000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>29000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26000</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E12" s="3">
         <v>36200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>24600</v>
       </c>
       <c r="H12" s="3">
         <v>24600</v>
       </c>
       <c r="I12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="J12" s="3">
         <v>23800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>12200</v>
       </c>
       <c r="P12" s="3">
         <v>12200</v>
       </c>
       <c r="Q12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="R12" s="3">
         <v>11700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6400</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E17" s="3">
         <v>193400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>179400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>164000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>150700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>144200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>142600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>135800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>121900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>125700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>112900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>115200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>76900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>66100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>54400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>49400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>44300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-49100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-49600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-35800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-38800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-41200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-45900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-50300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-25300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-44500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-43300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-34200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-27700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-32500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-28500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-34600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-31700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-40700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-47100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-23200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-17300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-4400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1607,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-50200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-41100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-38600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-35600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-39300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-44700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-50600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1100</v>
       </c>
       <c r="N24" s="3">
         <v>1100</v>
       </c>
       <c r="O24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-42000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-35500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-39600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-37200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-45800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-51200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-26200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-51500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-42000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-35500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-39600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-40600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-51200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-51100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-51500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-42000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-35500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-39600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-40600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-45800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-51200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-51100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-51500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-42000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-35500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-39600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-40600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-45800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-51200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,53 +2574,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>312400</v>
+      </c>
+      <c r="E41" s="3">
         <v>312900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>327500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>321000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>296800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>304900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>303100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>309900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>310800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>356000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>332700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>326900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>374200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>87000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,53 +2702,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E43" s="3">
         <v>118800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>104800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>147300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>128200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>88700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>93400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>97800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>82300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>92000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>93000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,53 +2832,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E45" s="3">
         <v>68900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>63800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>60700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>50800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,53 +2897,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>521800</v>
+      </c>
+      <c r="E46" s="3">
         <v>500600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>496200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>529000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>475800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>440300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>438800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>462900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>442900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>475000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>454700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>448700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>458600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,53 +3027,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E48" s="3">
         <v>97200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>92600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>85600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>88000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>86800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>85500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>86500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>84100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>81900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>38800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,38 +3092,41 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E49" s="3">
         <v>37200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3142,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,53 +3287,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E52" s="3">
         <v>94500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>88200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>86600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>76100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>64100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>68000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>45000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>36800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,53 +3417,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>758500</v>
+      </c>
+      <c r="E54" s="3">
         <v>729500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>714500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>739100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>678100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>640900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>627200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>649800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>618100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>602500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>576000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>528800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>532800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>234200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,53 +3534,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E57" s="3">
         <v>24100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,50 +3597,53 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>7000</v>
       </c>
       <c r="J58" s="3">
         <v>7000</v>
       </c>
       <c r="K58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L58" s="3">
         <v>6000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>5200</v>
       </c>
       <c r="M58" s="3">
         <v>5200</v>
       </c>
       <c r="N58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3528,53 +3662,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>416600</v>
+      </c>
+      <c r="E59" s="3">
         <v>380700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>368100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>377900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>318700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>280500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>267300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>284300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>254500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>232200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>212000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>191400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>150200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>145600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,53 +3727,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>443500</v>
+      </c>
+      <c r="E60" s="3">
         <v>412800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>393700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>405200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>343200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>302500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>293800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>307700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>277200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>253800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>233800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>208400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>168700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>153000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,44 +3792,47 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3714,53 +3857,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E62" s="3">
         <v>47300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>49100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>43200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,53 +4117,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>493400</v>
+      </c>
+      <c r="E66" s="3">
         <v>467700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>451800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>461100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>401000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>358700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>346600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>358100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>323700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>298400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>278100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>221300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>180900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>161900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,53 +4467,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-790600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-749600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-698500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-647000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-604900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-568100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-532600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-492500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-455800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-421100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-380400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-343200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-297400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-259400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,53 +4727,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>265100</v>
+      </c>
+      <c r="E76" s="3">
         <v>261900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>262700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>278000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>277100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>282100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>280600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>291700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>294400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>304000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>297900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>307500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>351900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>72300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-51100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-51500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-42000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-35500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-39600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-40600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-45800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-51200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,59 +5019,60 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,59 +5407,62 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,59 +5499,60 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,59 +5692,62 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,59 +6042,62 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>10300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>305300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>61900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5861,59 +6107,62 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5923,59 +6172,62 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-47300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>287200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>62700</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PLAN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E8" s="3">
         <v>155300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>144300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>129800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>106500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>103800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>89400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>84500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>75800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>62000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>57800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>51600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>46300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>44200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>41100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>36700</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E9" s="3">
         <v>42100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>29400</v>
       </c>
       <c r="H9" s="3">
         <v>29400</v>
       </c>
       <c r="I9" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J9" s="3">
         <v>25400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>24700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>22500</v>
       </c>
       <c r="M9" s="3">
         <v>22500</v>
       </c>
       <c r="N9" s="3">
+        <v>22500</v>
+      </c>
+      <c r="O9" s="3">
         <v>21600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10700</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E10" s="3">
         <v>113200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>108100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>97000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>93100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>85500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>81100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>79100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>74000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>66900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>45000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>29000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26000</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +991,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E12" s="3">
         <v>40800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>24600</v>
       </c>
       <c r="I12" s="3">
         <v>24600</v>
       </c>
       <c r="J12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K12" s="3">
         <v>23800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>12200</v>
       </c>
       <c r="Q12" s="3">
         <v>12200</v>
       </c>
       <c r="R12" s="3">
+        <v>12200</v>
+      </c>
+      <c r="S12" s="3">
         <v>11700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6400</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>216500</v>
+      </c>
+      <c r="E17" s="3">
         <v>203500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>193400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>179400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>164000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>150700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>144200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>142600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>135800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>121900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>125700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>115200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>112300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>77800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>76900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>66100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>54400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>49400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>44300</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-48200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-49100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-49600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-41200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-45900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-50300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-25300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1448,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-41200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-44500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-43300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-32500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-28500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-34600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-31700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-40700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-17100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-23200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-17300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>-4400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,138 +1650,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-48700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-50200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-41100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-38600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-39300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-44700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-50600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8000</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1100</v>
       </c>
       <c r="O24" s="3">
         <v>1100</v>
       </c>
       <c r="P24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-41000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-51500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-42000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-35500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-39600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-37200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-45800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-26200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8200</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-41000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-51100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-51500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-42000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-35500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-39600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-21000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-26200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-41000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-51100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-51500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-42000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-35500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-39600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-40600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-45800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-21000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-26200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8200</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-41000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-51100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-51500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-42000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-35500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-39600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-40600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-45800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-21000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-26200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8200</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,56 +2661,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>299400</v>
+      </c>
+      <c r="E41" s="3">
         <v>312400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>312900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>327500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>321000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>296800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>304900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>303100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>309900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>310800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>356000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>332700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>326900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>374200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>87000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,8 +2727,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,56 +2795,59 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E43" s="3">
         <v>138900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>118800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>104800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>147300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>128200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>88700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>93400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>109400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>97800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>82300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>92000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>93000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>60900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2770,8 +2863,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,56 +2931,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E45" s="3">
         <v>70500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>68900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>63800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>60700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>50800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>46800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2900,56 +2999,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>577800</v>
+      </c>
+      <c r="E46" s="3">
         <v>521800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>496200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>529000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>475800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>440300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>438800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>462900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>442900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>475000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>454700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>448700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>458600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>164000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3067,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,56 +3135,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E48" s="3">
         <v>94500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>97200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>92600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>85600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>88000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>86800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>85500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>86500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>84100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>81900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>42800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>38800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,41 +3203,44 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E49" s="3">
         <v>36900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3145,8 +3256,8 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,56 +3407,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E52" s="3">
         <v>105300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>94500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>86600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>76100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>64100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>45000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,56 +3543,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>832600</v>
+      </c>
+      <c r="E54" s="3">
         <v>758500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>729500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>714500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>739100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>678100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>640900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>627200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>649800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>618100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>602500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>576000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>528800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>532800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>234200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3611,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,56 +3665,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E57" s="3">
         <v>19900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,53 +3731,56 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>7000</v>
       </c>
       <c r="K58" s="3">
         <v>7000</v>
       </c>
       <c r="L58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M58" s="3">
         <v>6000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>5200</v>
       </c>
       <c r="N58" s="3">
         <v>5200</v>
       </c>
       <c r="O58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,56 +3799,59 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E59" s="3">
         <v>416600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>380700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>368100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>377900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>318700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>280500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>267300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>284300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>254500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>232200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>212000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>191400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>150200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>145600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3730,56 +3867,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>522500</v>
+      </c>
+      <c r="E60" s="3">
         <v>443500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>412800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>393700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>405200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>343200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>302500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>293800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>307700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>277200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>253800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>233800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>208400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>168700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>153000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3795,47 +3935,50 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E61" s="3">
         <v>6000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3860,56 +4003,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E62" s="3">
         <v>43900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>47300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>49100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>43200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3925,8 +4071,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,56 +4275,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>569900</v>
+      </c>
+      <c r="E66" s="3">
         <v>493400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>467700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>451800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>461100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>401000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>358700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>346600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>358100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>323700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>298400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>278100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>221300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>180900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4343,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,56 +4641,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-850600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-790600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-749600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-698500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-647000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-604900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-568100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-532600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-492500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-455800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-421100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-380400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-343200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-297400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-259400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4709,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,56 +4913,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>262700</v>
+      </c>
+      <c r="E76" s="3">
         <v>265100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>261900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>262700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>278000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>277100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>282100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>280600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>291700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>294400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>304000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>297900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>307500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>351900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>72300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4981,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-41000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-51100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-51500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-42000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-35500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-39600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-40600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-45800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-21000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-26200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8200</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,62 +5218,63 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,62 +5624,65 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E89" s="3">
         <v>5600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5475,8 +5692,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,62 +5720,63 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5565,8 +5786,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,62 +5922,65 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5760,8 +5990,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,62 +6288,65 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>305300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>61900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6110,62 +6356,65 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6175,62 +6424,65 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-47300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>287200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-15500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>62700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6238,6 +6490,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
